--- a/TestData/CMS/test_UpdateBlockInfoStatus_data.xlsx
+++ b/TestData/CMS/test_UpdateBlockInfoStatus_data.xlsx
@@ -1025,14 +1025,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.625" customWidth="1"/>
     <col min="2" max="2" width="85.125" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="45.25" customWidth="1"/>
     <col min="5" max="5" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
